--- a/excel/base — копия.xlsx
+++ b/excel/base — копия.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/egorka/Desktop/auto_zapoln/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{73FFB1A6-4894-2C45-94D7-2DE3E9F28AF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{282359D8-BDD6-1843-8837-3535D970CB4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{3F94B9BD-58BD-4241-967C-0E563EF93471}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>day</t>
   </si>
@@ -49,15 +49,9 @@
     <t>fio</t>
   </si>
   <si>
-    <t>Кашаев Егор Сергеевич</t>
-  </si>
-  <si>
     <t>fio_j</t>
   </si>
   <si>
-    <t>Кашаев Борис Еорович</t>
-  </si>
-  <si>
     <t>hb_j_day</t>
   </si>
   <si>
@@ -67,7 +61,46 @@
     <t>hb_j_year</t>
   </si>
   <si>
-    <t>меркурия</t>
+    <t>ser_pas</t>
+  </si>
+  <si>
+    <t>num_pas</t>
+  </si>
+  <si>
+    <t>yer</t>
+  </si>
+  <si>
+    <t>Иванов Иван Иванович</t>
+  </si>
+  <si>
+    <t>Иванова Елеена Ивановна</t>
+  </si>
+  <si>
+    <t>сентября</t>
+  </si>
+  <si>
+    <t>dp</t>
+  </si>
+  <si>
+    <t>mp</t>
+  </si>
+  <si>
+    <t>yp</t>
+  </si>
+  <si>
+    <t>июнь</t>
+  </si>
+  <si>
+    <t>kem_pas</t>
+  </si>
+  <si>
+    <t>Отделом УФМС России по Санкт-петербургу и Ленинградской области</t>
+  </si>
+  <si>
+    <t>adres</t>
+  </si>
+  <si>
+    <t>mest_rab</t>
   </si>
 </sst>
 </file>
@@ -119,9 +152,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -436,21 +470,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFDC7492-9353-9141-B650-472626CA479A}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="22.33203125" customWidth="1"/>
-    <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="5" width="9.5" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" customWidth="1"/>
+    <col min="5" max="5" width="24" customWidth="1"/>
+    <col min="6" max="6" width="9.5" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="14" max="14" width="59.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -458,43 +493,93 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
+      <c r="C2" s="1">
+        <v>2025</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1">
-        <v>35</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="1">
-        <v>9022</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="1">
+        <v>2013</v>
+      </c>
+      <c r="I2" s="1">
+        <v>3611</v>
+      </c>
+      <c r="J2" s="1">
+        <v>439131</v>
+      </c>
+      <c r="K2" s="1">
+        <v>9</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="1">
+        <v>2011</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
